--- a/Final_Output.xlsx
+++ b/Final_Output.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Novitech R&amp;D\AI&amp;DataAnalitics\Power Query\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF27F05-46B0-42A0-B28A-8490A3D064CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2AD914-FDF6-4565-8A61-ADEF2DF4375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{F711A5F8-02B9-4A01-91FE-E0541E2571F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{F711A5F8-02B9-4A01-91FE-E0541E2571F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataset (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="dataset" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Final_Output" sheetId="3" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'dataset (2)'!$A$1:$C$28</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Final_Output!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -166,9 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,7 +242,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1083347360677299E-2"/>
+          <c:y val="0.12279753019370655"/>
+          <c:w val="0.92891665263932266"/>
+          <c:h val="0.68549207793606393"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -254,7 +262,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dataset (2)'!$C$1</c:f>
+              <c:f>Final_Output!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -279,7 +287,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'dataset (2)'!$A$2:$B$28</c:f>
+              <c:f>Final_Output!$A$2:$B$28</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="27"/>
                 <c:lvl>
@@ -453,7 +461,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dataset (2)'!$C$2:$C$28</c:f>
+              <c:f>Final_Output!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -543,7 +551,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D59-4BBB-850E-2614D05F9038}"/>
+              <c16:uniqueId val="{00000000-CF59-42C5-AD5A-79DB01B7280F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1248,27 +1256,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5388A7D8-7B04-1244-5634-CDF36A3B09BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60D8BEC-BEC4-4474-A709-B1B8BDFE4B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1608,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B99F26F-4EC4-4247-92C3-630150B2C494}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1644,7 @@
       <c r="A2">
         <v>2018</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1645,7 +1655,7 @@
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1656,7 +1666,7 @@
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1667,7 +1677,7 @@
       <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -1678,7 +1688,7 @@
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -1689,7 +1699,7 @@
       <c r="A7">
         <v>2018</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
@@ -1700,7 +1710,7 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -1711,7 +1721,7 @@
       <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
@@ -1722,7 +1732,7 @@
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
@@ -1733,7 +1743,7 @@
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
@@ -1744,7 +1754,7 @@
       <c r="A12">
         <v>2019</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
@@ -1755,7 +1765,7 @@
       <c r="A13">
         <v>2019</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
@@ -1766,7 +1776,7 @@
       <c r="A14">
         <v>2019</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
@@ -1777,7 +1787,7 @@
       <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1788,7 +1798,7 @@
       <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
@@ -1799,7 +1809,7 @@
       <c r="A17">
         <v>2019</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
@@ -1810,7 +1820,7 @@
       <c r="A18">
         <v>2019</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -1821,7 +1831,7 @@
       <c r="A19">
         <v>2019</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
@@ -1832,7 +1842,7 @@
       <c r="A20">
         <v>2020</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -1843,7 +1853,7 @@
       <c r="A21">
         <v>2020</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
@@ -1854,7 +1864,7 @@
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
@@ -1865,7 +1875,7 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
@@ -1876,7 +1886,7 @@
       <c r="A24">
         <v>2020</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
@@ -1887,7 +1897,7 @@
       <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -1898,7 +1908,7 @@
       <c r="A26">
         <v>2020</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
       <c r="C26">
@@ -1909,7 +1919,7 @@
       <c r="A27">
         <v>2020</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27">
@@ -1920,7 +1930,7 @@
       <c r="A28">
         <v>2020</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28">
@@ -1929,18 +1939,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A73E299-4D36-449C-910C-BE7EBA93721C}">
-  <dimension ref="B2:B19"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1948,75 +1959,9 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230291BF-AEDF-4A4A-BBD6-FB0A18F99965}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
